--- a/data/emission_limits.xlsx
+++ b/data/emission_limits.xlsx
@@ -92,11 +92,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +380,7 @@
   <dimension ref="A3:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,14 +400,14 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>6</v>
       </c>
@@ -428,7 +428,7 @@
       <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -451,7 +451,7 @@
         <f>+D$7+(F$11-D$11)</f>
         <v>891</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -471,7 +471,7 @@
         <f t="shared" ref="F8:F10" si="1">+D$7+(F$11-D$11)</f>
         <v>891</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -491,7 +491,7 @@
         <f t="shared" si="1"/>
         <v>891</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -511,7 +511,7 @@
         <f t="shared" si="1"/>
         <v>891</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -559,19 +559,19 @@
         <f t="shared" ref="B13:B76" si="2">+B12+1</f>
         <v>2013</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f>+C$12+((C$50-C$12)/($B$50-$B$12))*($B13-$B$12)</f>
         <v>927.13157894736844</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" ref="D13:F28" si="3">+D$12+((D$50-D$12)/($B$50-$B$12))*($B13-$B$12)</f>
         <v>786.5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>949.82894736842104</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
         <v>806.25</v>
       </c>
@@ -581,19 +581,19 @@
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:F49" si="4">+C$12+((C$50-C$12)/($B$50-$B$12))*($B14-$B$12)</f>
         <v>916.26315789473688</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="3"/>
         <v>777</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="3"/>
         <v>938.65789473684208</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="3"/>
         <v>796.5</v>
       </c>
@@ -603,19 +603,19 @@
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="4"/>
         <v>905.3947368421052</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="3"/>
         <v>767.5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>927.48684210526312</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="3"/>
         <v>786.75</v>
       </c>
@@ -625,19 +625,19 @@
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="4"/>
         <v>894.52631578947364</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="3"/>
         <v>758</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>916.31578947368416</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="3"/>
         <v>777</v>
       </c>
@@ -647,19 +647,19 @@
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="4"/>
         <v>883.65789473684208</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="3"/>
         <v>748.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>905.14473684210532</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="3"/>
         <v>767.25</v>
       </c>
@@ -669,19 +669,19 @@
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="4"/>
         <v>872.78947368421052</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="3"/>
         <v>739</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>893.97368421052636</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
         <v>757.5</v>
       </c>
@@ -691,19 +691,19 @@
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="4"/>
         <v>861.92105263157896</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="3"/>
         <v>729.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>882.8026315789474</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
         <v>747.75</v>
       </c>
@@ -713,19 +713,19 @@
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="4"/>
         <v>851.0526315789474</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="3"/>
         <v>720</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>871.63157894736844</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="3"/>
         <v>738</v>
       </c>
@@ -735,19 +735,19 @@
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="4"/>
         <v>840.18421052631584</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="3"/>
         <v>710.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>860.46052631578948</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="3"/>
         <v>728.25</v>
       </c>
@@ -757,19 +757,19 @@
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="4"/>
         <v>829.31578947368416</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="3"/>
         <v>701</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>849.28947368421052</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="3"/>
         <v>718.5</v>
       </c>
@@ -779,19 +779,19 @@
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="4"/>
         <v>818.4473684210526</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="3"/>
         <v>691.5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>838.11842105263156</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="3"/>
         <v>708.75</v>
       </c>
@@ -801,19 +801,19 @@
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="4"/>
         <v>807.57894736842104</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" si="3"/>
         <v>682</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" si="3"/>
         <v>826.9473684210526</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="3"/>
         <v>699</v>
       </c>
@@ -823,19 +823,19 @@
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="4"/>
         <v>796.71052631578948</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="3"/>
         <v>672.5</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>815.77631578947376</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="3"/>
         <v>689.25</v>
       </c>
@@ -845,19 +845,19 @@
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="4"/>
         <v>785.84210526315792</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="3"/>
         <v>663</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>804.6052631578948</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="3"/>
         <v>679.5</v>
       </c>
@@ -867,19 +867,19 @@
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="4"/>
         <v>774.97368421052636</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="3"/>
         <v>653.5</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>793.43421052631584</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="3"/>
         <v>669.75</v>
       </c>
@@ -889,19 +889,19 @@
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="4"/>
         <v>764.1052631578948</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" si="3"/>
         <v>644</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>782.26315789473688</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
@@ -911,19 +911,19 @@
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="4"/>
         <v>753.23684210526312</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="4"/>
         <v>634.5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="4"/>
         <v>771.09210526315792</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="4"/>
         <v>650.25</v>
       </c>
@@ -933,19 +933,19 @@
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="4"/>
         <v>742.36842105263156</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" si="4"/>
         <v>625</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="4"/>
         <v>759.92105263157896</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="4"/>
         <v>640.5</v>
       </c>
@@ -955,19 +955,19 @@
         <f t="shared" si="2"/>
         <v>2031</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="4"/>
         <v>731.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f t="shared" si="4"/>
         <v>615.5</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="4"/>
         <v>748.75</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="4"/>
         <v>630.75</v>
       </c>
@@ -977,19 +977,19 @@
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="4"/>
         <v>720.63157894736844</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <f t="shared" si="4"/>
         <v>606</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="4"/>
         <v>737.57894736842104</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="4"/>
         <v>621</v>
       </c>
@@ -999,19 +999,19 @@
         <f t="shared" si="2"/>
         <v>2033</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="4"/>
         <v>709.76315789473688</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <f t="shared" si="4"/>
         <v>596.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="4"/>
         <v>726.40789473684208</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="4"/>
         <v>611.25</v>
       </c>
@@ -1021,19 +1021,19 @@
         <f t="shared" si="2"/>
         <v>2034</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="4"/>
         <v>698.8947368421052</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <f t="shared" si="4"/>
         <v>587</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f t="shared" si="4"/>
         <v>715.23684210526312</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="4"/>
         <v>601.5</v>
       </c>
@@ -1043,19 +1043,19 @@
         <f t="shared" si="2"/>
         <v>2035</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="4"/>
         <v>688.02631578947376</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f t="shared" si="4"/>
         <v>577.5</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="4"/>
         <v>704.06578947368416</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="4"/>
         <v>591.75</v>
       </c>
@@ -1065,19 +1065,19 @@
         <f t="shared" si="2"/>
         <v>2036</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="4"/>
         <v>677.15789473684208</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <f t="shared" si="4"/>
         <v>568</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="4"/>
         <v>692.8947368421052</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="4"/>
         <v>582</v>
       </c>
@@ -1087,19 +1087,19 @@
         <f t="shared" si="2"/>
         <v>2037</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="4"/>
         <v>666.28947368421052</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <f t="shared" si="4"/>
         <v>558.5</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f t="shared" si="4"/>
         <v>681.72368421052624</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="4"/>
         <v>572.25</v>
       </c>
@@ -1109,19 +1109,19 @@
         <f t="shared" si="2"/>
         <v>2038</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="4"/>
         <v>655.42105263157896</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <f t="shared" si="4"/>
         <v>549</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <f t="shared" si="4"/>
         <v>670.5526315789474</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="4"/>
         <v>562.5</v>
       </c>
@@ -1131,19 +1131,19 @@
         <f t="shared" si="2"/>
         <v>2039</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <f t="shared" si="4"/>
         <v>644.5526315789474</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <f t="shared" si="4"/>
         <v>539.5</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <f t="shared" si="4"/>
         <v>659.38157894736844</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="4"/>
         <v>552.75</v>
       </c>
@@ -1153,19 +1153,19 @@
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f t="shared" si="4"/>
         <v>633.68421052631584</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <f t="shared" si="4"/>
         <v>530</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <f t="shared" si="4"/>
         <v>648.21052631578948</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <f t="shared" si="4"/>
         <v>543</v>
       </c>
@@ -1175,19 +1175,19 @@
         <f t="shared" si="2"/>
         <v>2041</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <f t="shared" si="4"/>
         <v>622.81578947368416</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <f t="shared" si="4"/>
         <v>520.5</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <f t="shared" si="4"/>
         <v>637.03947368421052</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f t="shared" si="4"/>
         <v>533.25</v>
       </c>
@@ -1197,19 +1197,19 @@
         <f t="shared" si="2"/>
         <v>2042</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <f t="shared" si="4"/>
         <v>611.94736842105272</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <f t="shared" si="4"/>
         <v>511</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <f t="shared" si="4"/>
         <v>625.86842105263167</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="4"/>
         <v>523.5</v>
       </c>
@@ -1219,19 +1219,19 @@
         <f t="shared" si="2"/>
         <v>2043</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <f t="shared" si="4"/>
         <v>601.07894736842104</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <f t="shared" si="4"/>
         <v>501.5</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <f t="shared" si="4"/>
         <v>614.69736842105272</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <f t="shared" si="4"/>
         <v>513.75</v>
       </c>
@@ -1241,19 +1241,19 @@
         <f t="shared" si="2"/>
         <v>2044</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <f t="shared" si="4"/>
         <v>590.21052631578948</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <f t="shared" si="4"/>
         <v>492</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <f t="shared" si="4"/>
         <v>603.52631578947376</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="4"/>
         <v>504</v>
       </c>
@@ -1263,19 +1263,19 @@
         <f t="shared" si="2"/>
         <v>2045</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <f t="shared" si="4"/>
         <v>579.34210526315792</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <f t="shared" si="4"/>
         <v>482.5</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <f t="shared" si="4"/>
         <v>592.3552631578948</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="4"/>
         <v>494.25</v>
       </c>
@@ -1285,19 +1285,19 @@
         <f t="shared" si="2"/>
         <v>2046</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <f t="shared" si="4"/>
         <v>568.47368421052624</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <f t="shared" si="4"/>
         <v>473</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <f t="shared" si="4"/>
         <v>581.18421052631584</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f t="shared" si="4"/>
         <v>484.5</v>
       </c>
@@ -1307,19 +1307,19 @@
         <f t="shared" si="2"/>
         <v>2047</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <f t="shared" si="4"/>
         <v>557.6052631578948</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <f t="shared" si="4"/>
         <v>463.5</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <f t="shared" si="4"/>
         <v>570.01315789473688</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <f t="shared" si="4"/>
         <v>474.75</v>
       </c>
@@ -1329,19 +1329,19 @@
         <f t="shared" si="2"/>
         <v>2048</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <f t="shared" si="4"/>
         <v>546.73684210526312</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <f t="shared" si="4"/>
         <v>558.84210526315792</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
@@ -1351,19 +1351,19 @@
         <f t="shared" si="2"/>
         <v>2049</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <f t="shared" si="4"/>
         <v>535.86842105263156</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <f t="shared" si="4"/>
         <v>444.5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <f t="shared" si="4"/>
         <v>547.67105263157896</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <f t="shared" si="4"/>
         <v>455.25</v>
       </c>
@@ -1395,19 +1395,19 @@
         <f t="shared" si="2"/>
         <v>2051</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <f>+C$50+((C$100-C$50)/($B$100-$B$50))*($B51-$B$50)</f>
         <v>514.5</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <f t="shared" ref="D51:F66" si="5">+D$50+((D$100-D$50)/($B$100-$B$50))*($B51-$B$50)</f>
         <v>426.3</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <f t="shared" si="5"/>
         <v>525.77</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <f t="shared" si="5"/>
         <v>436.59</v>
       </c>
@@ -1417,19 +1417,19 @@
         <f t="shared" si="2"/>
         <v>2052</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <f t="shared" ref="C52:F88" si="6">+C$50+((C$100-C$50)/($B$100-$B$50))*($B52-$B$50)</f>
         <v>504</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <f t="shared" si="5"/>
         <v>417.6</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <f t="shared" si="5"/>
         <v>515.04</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <f t="shared" si="5"/>
         <v>427.68</v>
       </c>
@@ -1439,19 +1439,19 @@
         <f t="shared" si="2"/>
         <v>2053</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <f t="shared" si="6"/>
         <v>493.5</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <f t="shared" si="5"/>
         <v>408.9</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <f t="shared" si="5"/>
         <v>504.31</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <f t="shared" si="5"/>
         <v>418.77</v>
       </c>
@@ -1461,19 +1461,19 @@
         <f t="shared" si="2"/>
         <v>2054</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <f t="shared" si="6"/>
         <v>483</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <f t="shared" si="5"/>
         <v>400.2</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <f t="shared" si="5"/>
         <v>493.58</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <f t="shared" si="5"/>
         <v>409.86</v>
       </c>
@@ -1483,19 +1483,19 @@
         <f t="shared" si="2"/>
         <v>2055</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <f t="shared" si="6"/>
         <v>472.5</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <f t="shared" si="5"/>
         <v>391.5</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <f t="shared" si="5"/>
         <v>482.85</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <f t="shared" si="5"/>
         <v>400.95</v>
       </c>
@@ -1505,19 +1505,19 @@
         <f t="shared" si="2"/>
         <v>2056</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <f t="shared" si="6"/>
         <v>462</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <f t="shared" si="5"/>
         <v>382.8</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <f t="shared" si="5"/>
         <v>472.12</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <f t="shared" si="5"/>
         <v>392.04</v>
       </c>
@@ -1527,19 +1527,19 @@
         <f t="shared" si="2"/>
         <v>2057</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <f t="shared" si="6"/>
         <v>451.5</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <f t="shared" si="5"/>
         <v>374.1</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <f t="shared" si="5"/>
         <v>461.39</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <f t="shared" si="5"/>
         <v>383.13</v>
       </c>
@@ -1549,19 +1549,19 @@
         <f t="shared" si="2"/>
         <v>2058</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <f t="shared" si="5"/>
         <v>365.4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <f t="shared" si="5"/>
         <v>450.65999999999997</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <f t="shared" si="5"/>
         <v>374.22</v>
       </c>
@@ -1571,19 +1571,19 @@
         <f t="shared" si="2"/>
         <v>2059</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <f t="shared" si="6"/>
         <v>430.5</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <f t="shared" si="5"/>
         <v>356.7</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <f t="shared" si="5"/>
         <v>439.93</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <f t="shared" si="5"/>
         <v>365.31</v>
       </c>
@@ -1593,19 +1593,19 @@
         <f t="shared" si="2"/>
         <v>2060</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <f t="shared" si="5"/>
         <v>429.2</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f t="shared" si="5"/>
         <v>356.4</v>
       </c>
@@ -1615,19 +1615,19 @@
         <f t="shared" si="2"/>
         <v>2061</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <f t="shared" si="6"/>
         <v>409.5</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <f t="shared" si="5"/>
         <v>339.3</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <f t="shared" si="5"/>
         <v>418.47</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <f t="shared" si="5"/>
         <v>347.49</v>
       </c>
@@ -1637,19 +1637,19 @@
         <f t="shared" si="2"/>
         <v>2062</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <f t="shared" si="5"/>
         <v>330.6</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <f t="shared" si="5"/>
         <v>407.74</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f t="shared" si="5"/>
         <v>338.58</v>
       </c>
@@ -1659,19 +1659,19 @@
         <f t="shared" si="2"/>
         <v>2063</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <f t="shared" si="6"/>
         <v>388.5</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <f t="shared" si="5"/>
         <v>321.89999999999998</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <f t="shared" si="5"/>
         <v>397.01</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <f t="shared" si="5"/>
         <v>329.67</v>
       </c>
@@ -1681,19 +1681,19 @@
         <f t="shared" si="2"/>
         <v>2064</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <f t="shared" si="6"/>
         <v>378</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <f t="shared" si="5"/>
         <v>313.20000000000005</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <f t="shared" si="5"/>
         <v>386.28</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <f t="shared" si="5"/>
         <v>320.76</v>
       </c>
@@ -1703,19 +1703,19 @@
         <f t="shared" si="2"/>
         <v>2065</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <f t="shared" si="6"/>
         <v>367.5</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <f t="shared" si="5"/>
         <v>304.5</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <f t="shared" si="5"/>
         <v>375.54999999999995</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <f t="shared" si="5"/>
         <v>311.85000000000002</v>
       </c>
@@ -1725,19 +1725,19 @@
         <f t="shared" si="2"/>
         <v>2066</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <f t="shared" si="5"/>
         <v>295.8</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <f t="shared" si="5"/>
         <v>364.82</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <f t="shared" si="5"/>
         <v>302.94</v>
       </c>
@@ -1747,19 +1747,19 @@
         <f t="shared" si="2"/>
         <v>2067</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <f t="shared" si="6"/>
         <v>346.5</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <f t="shared" si="6"/>
         <v>287.10000000000002</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <f t="shared" si="6"/>
         <v>354.09000000000003</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <f t="shared" si="6"/>
         <v>294.02999999999997</v>
       </c>
@@ -1769,19 +1769,19 @@
         <f t="shared" si="2"/>
         <v>2068</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <f t="shared" si="6"/>
         <v>336</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <f t="shared" si="6"/>
         <v>278.39999999999998</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <f t="shared" si="6"/>
         <v>343.36</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <f t="shared" si="6"/>
         <v>285.12</v>
       </c>
@@ -1791,19 +1791,19 @@
         <f t="shared" si="2"/>
         <v>2069</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <f t="shared" si="6"/>
         <v>325.5</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <f t="shared" si="6"/>
         <v>269.70000000000005</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <f t="shared" si="6"/>
         <v>332.63</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <f t="shared" si="6"/>
         <v>276.21000000000004</v>
       </c>
@@ -1813,19 +1813,19 @@
         <f t="shared" si="2"/>
         <v>2070</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <f t="shared" si="6"/>
         <v>261</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <f t="shared" si="6"/>
         <v>321.89999999999998</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <f t="shared" si="6"/>
         <v>267.3</v>
       </c>
@@ -1835,19 +1835,19 @@
         <f t="shared" si="2"/>
         <v>2071</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <f t="shared" si="6"/>
         <v>304.5</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <f t="shared" si="6"/>
         <v>252.3</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <f t="shared" si="6"/>
         <v>311.16999999999996</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <f t="shared" si="6"/>
         <v>258.39</v>
       </c>
@@ -1857,19 +1857,19 @@
         <f t="shared" si="2"/>
         <v>2072</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <f t="shared" si="6"/>
         <v>294</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <f t="shared" si="6"/>
         <v>243.60000000000002</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <f t="shared" si="6"/>
         <v>300.44</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <f t="shared" si="6"/>
         <v>249.48</v>
       </c>
@@ -1879,19 +1879,19 @@
         <f t="shared" si="2"/>
         <v>2073</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <f t="shared" si="6"/>
         <v>283.5</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <f t="shared" si="6"/>
         <v>234.9</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <f t="shared" si="6"/>
         <v>289.70999999999998</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <f t="shared" si="6"/>
         <v>240.57</v>
       </c>
@@ -1901,19 +1901,19 @@
         <f t="shared" si="2"/>
         <v>2074</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <f t="shared" si="6"/>
         <v>273</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <f t="shared" si="6"/>
         <v>226.20000000000002</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <f t="shared" si="6"/>
         <v>278.98</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <f t="shared" si="6"/>
         <v>231.66</v>
       </c>
@@ -1923,19 +1923,19 @@
         <f t="shared" si="2"/>
         <v>2075</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <f t="shared" si="6"/>
         <v>262.5</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <f t="shared" si="6"/>
         <v>217.50000000000003</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <f t="shared" si="6"/>
         <v>268.25</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <f t="shared" si="6"/>
         <v>222.75</v>
       </c>
@@ -1945,19 +1945,19 @@
         <f t="shared" si="2"/>
         <v>2076</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <f t="shared" si="6"/>
         <v>252</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <f t="shared" si="6"/>
         <v>208.8</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <f t="shared" si="6"/>
         <v>257.52</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <f t="shared" si="6"/>
         <v>213.84</v>
       </c>
@@ -1967,19 +1967,19 @@
         <f t="shared" ref="B77:B100" si="7">+B76+1</f>
         <v>2077</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <f t="shared" si="6"/>
         <v>241.5</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <f t="shared" si="6"/>
         <v>200.10000000000002</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <f t="shared" si="6"/>
         <v>246.78999999999996</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <f t="shared" si="6"/>
         <v>204.93</v>
       </c>
@@ -1989,19 +1989,19 @@
         <f t="shared" si="7"/>
         <v>2078</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <f t="shared" si="6"/>
         <v>231</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <f t="shared" si="6"/>
         <v>191.40000000000003</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <f t="shared" si="6"/>
         <v>236.06</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <f t="shared" si="6"/>
         <v>196.01999999999998</v>
       </c>
@@ -2011,19 +2011,19 @@
         <f t="shared" si="7"/>
         <v>2079</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <f t="shared" si="6"/>
         <v>220.5</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <f t="shared" si="6"/>
         <v>182.70000000000002</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <f t="shared" si="6"/>
         <v>225.32999999999998</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <f t="shared" si="6"/>
         <v>187.11</v>
       </c>
@@ -2033,19 +2033,19 @@
         <f t="shared" si="7"/>
         <v>2080</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <f t="shared" si="6"/>
         <v>174</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <f t="shared" si="6"/>
         <v>214.59999999999997</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <f t="shared" si="6"/>
         <v>178.2</v>
       </c>
@@ -2055,19 +2055,19 @@
         <f t="shared" si="7"/>
         <v>2081</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <f t="shared" si="6"/>
         <v>199.5</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <f t="shared" si="6"/>
         <v>165.3</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <f t="shared" si="6"/>
         <v>203.87</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <f t="shared" si="6"/>
         <v>169.29000000000002</v>
       </c>
@@ -2077,19 +2077,19 @@
         <f t="shared" si="7"/>
         <v>2082</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <f t="shared" si="6"/>
         <v>189</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <f t="shared" si="6"/>
         <v>156.60000000000002</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <f t="shared" si="6"/>
         <v>193.14</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <f t="shared" si="6"/>
         <v>160.38</v>
       </c>
@@ -2099,19 +2099,19 @@
         <f t="shared" si="7"/>
         <v>2083</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <f t="shared" si="6"/>
         <v>178.5</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <f t="shared" si="6"/>
         <v>147.90000000000003</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <f t="shared" si="6"/>
         <v>182.40999999999997</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <f t="shared" si="6"/>
         <v>151.46999999999997</v>
       </c>
@@ -2121,19 +2121,19 @@
         <f t="shared" si="7"/>
         <v>2084</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <f t="shared" si="6"/>
         <v>139.20000000000005</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <f t="shared" si="6"/>
         <v>171.68</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <f t="shared" si="6"/>
         <v>142.56</v>
       </c>
@@ -2143,19 +2143,19 @@
         <f t="shared" si="7"/>
         <v>2085</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <f t="shared" si="6"/>
         <v>157.5</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <f t="shared" si="6"/>
         <v>130.5</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <f t="shared" si="6"/>
         <v>160.94999999999999</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <f t="shared" si="6"/>
         <v>133.64999999999998</v>
       </c>
@@ -2165,19 +2165,19 @@
         <f t="shared" si="7"/>
         <v>2086</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <f t="shared" si="6"/>
         <v>147</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <f t="shared" si="6"/>
         <v>121.80000000000001</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <f t="shared" si="6"/>
         <v>150.21999999999997</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <f t="shared" si="6"/>
         <v>124.74000000000001</v>
       </c>
@@ -2187,19 +2187,19 @@
         <f t="shared" si="7"/>
         <v>2087</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <f>+C$50+((C$100-C$50)/($B$100-$B$50))*($B87-$B$50)</f>
         <v>136.5</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <f t="shared" ref="D87:F99" si="8">+D$50+((D$100-D$50)/($B$100-$B$50))*($B87-$B$50)</f>
         <v>113.10000000000002</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <f t="shared" si="8"/>
         <v>139.49</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <f t="shared" si="8"/>
         <v>115.82999999999998</v>
       </c>
@@ -2209,19 +2209,19 @@
         <f t="shared" si="7"/>
         <v>2088</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <f t="shared" si="8"/>
         <v>104.40000000000003</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <f t="shared" si="8"/>
         <v>128.76</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <f t="shared" si="8"/>
         <v>106.92000000000002</v>
       </c>
@@ -2231,19 +2231,19 @@
         <f t="shared" si="7"/>
         <v>2089</v>
       </c>
-      <c r="C89" s="3">
-        <f t="shared" ref="C89:F99" si="9">+C$50+((C$100-C$50)/($B$100-$B$50))*($B89-$B$50)</f>
+      <c r="C89" s="2">
+        <f t="shared" ref="C89:C99" si="9">+C$50+((C$100-C$50)/($B$100-$B$50))*($B89-$B$50)</f>
         <v>115.5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <f t="shared" si="8"/>
         <v>95.700000000000045</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <f t="shared" si="8"/>
         <v>118.02999999999997</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <f t="shared" si="8"/>
         <v>98.009999999999991</v>
       </c>
@@ -2253,19 +2253,19 @@
         <f t="shared" si="7"/>
         <v>2090</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <f t="shared" si="9"/>
         <v>105</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <f t="shared" si="8"/>
         <v>107.29999999999995</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <f t="shared" si="8"/>
         <v>89.100000000000023</v>
       </c>
@@ -2275,19 +2275,19 @@
         <f t="shared" si="7"/>
         <v>2091</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <f t="shared" si="9"/>
         <v>94.5</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <f t="shared" si="8"/>
         <v>78.300000000000011</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <f t="shared" si="8"/>
         <v>96.57</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <f t="shared" si="8"/>
         <v>80.19</v>
       </c>
@@ -2297,19 +2297,19 @@
         <f t="shared" si="7"/>
         <v>2092</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <f t="shared" si="8"/>
         <v>69.600000000000023</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <f t="shared" si="8"/>
         <v>85.839999999999975</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <f t="shared" si="8"/>
         <v>71.279999999999973</v>
       </c>
@@ -2319,19 +2319,19 @@
         <f t="shared" si="7"/>
         <v>2093</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <f t="shared" si="9"/>
         <v>73.5</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <f t="shared" si="8"/>
         <v>60.900000000000034</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <f t="shared" si="8"/>
         <v>75.109999999999957</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <f t="shared" si="8"/>
         <v>62.370000000000005</v>
       </c>
@@ -2341,19 +2341,19 @@
         <f t="shared" si="7"/>
         <v>2094</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <f t="shared" si="8"/>
         <v>52.200000000000045</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <f t="shared" si="8"/>
         <v>64.38</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <f t="shared" si="8"/>
         <v>53.45999999999998</v>
       </c>
@@ -2363,19 +2363,19 @@
         <f t="shared" si="7"/>
         <v>2095</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <f t="shared" si="8"/>
         <v>43.500000000000057</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <f t="shared" si="8"/>
         <v>53.649999999999977</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <f t="shared" si="8"/>
         <v>44.550000000000011</v>
       </c>
@@ -2385,19 +2385,19 @@
         <f t="shared" si="7"/>
         <v>2096</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <f t="shared" si="8"/>
         <v>34.800000000000011</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <f t="shared" si="8"/>
         <v>42.919999999999959</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <f t="shared" si="8"/>
         <v>35.639999999999986</v>
       </c>
@@ -2407,19 +2407,19 @@
         <f t="shared" si="7"/>
         <v>2097</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <f t="shared" si="9"/>
         <v>31.5</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <f t="shared" si="8"/>
         <v>26.100000000000023</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <f t="shared" si="8"/>
         <v>32.19</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <f t="shared" si="8"/>
         <v>26.730000000000018</v>
       </c>
@@ -2429,19 +2429,19 @@
         <f t="shared" si="7"/>
         <v>2098</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <f t="shared" si="8"/>
         <v>17.400000000000034</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <f t="shared" si="8"/>
         <v>21.460000000000036</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <f t="shared" si="8"/>
         <v>17.819999999999993</v>
       </c>
@@ -2451,19 +2451,19 @@
         <f t="shared" si="7"/>
         <v>2099</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <f t="shared" si="9"/>
         <v>10.5</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <f t="shared" si="8"/>
         <v>8.7000000000000455</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <f t="shared" si="8"/>
         <v>10.730000000000018</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <f t="shared" si="8"/>
         <v>8.9099999999999682</v>
       </c>
